--- a/export.xlsx
+++ b/export.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Id_Réclaamtion</t>
   </si>
@@ -32,28 +32,28 @@
     <t>type</t>
   </si>
   <si>
-    <t>Je vous remercie par avance pour votre attention à cette affaire et pour votre promptitude à résoudre ces problèmes. Dans l'attente de votre réponse, veuillez agréer, cher Service Client, l'expression de mes salutations distinguées</t>
+    <t>date_reclamation</t>
+  </si>
+  <si>
+    <t>Bonjour, j'ai récemment acheté un produit chez vous et j'aimerais savoir quelle est votre politique de retour au cas où je ne serais pas satisfait(e) ? Merci.</t>
+  </si>
+  <si>
+    <t>Demande sur la politique de remboursement</t>
+  </si>
+  <si>
+    <t>Repondu</t>
+  </si>
+  <si>
+    <t>Réclamation</t>
+  </si>
+  <si>
+    <t>Je tiens tout d'abord à vous exprimer ma gratitude pour la qualité de votre service et la diversité des produits que vous proposez sur votre site. En tant que client fidèle depuis plusieurs années, j'ai toujours apprécié la facilité de navigation de votre</t>
+  </si>
+  <si>
+    <t>Salutation</t>
   </si>
   <si>
     <t>Remerciement</t>
-  </si>
-  <si>
-    <t>Repondu</t>
-  </si>
-  <si>
-    <t>Bonjour, j'ai récemment acheté un produit chez vous et j'aimerais savoir quelle est votre politique de retour au cas où je ne serais pas satisfait(e) ? Merci.</t>
-  </si>
-  <si>
-    <t>Demande sur la politique de remboursement</t>
-  </si>
-  <si>
-    <t>Réclamation</t>
-  </si>
-  <si>
-    <t>Je tiens tout d'abord à vous exprimer ma gratitude pour la qualité de votre service et la diversité des produits que vous proposez sur votre site. En tant que client fidèle depuis plusieurs années, j'ai toujours apprécié la facilité de navigation de votre</t>
-  </si>
-  <si>
-    <t>Salutation</t>
   </si>
   <si>
     <t>Je vous écris pour exprimer ma déception concernant ma récente commande passée sur votre site le [date de la commande]. Malheureusement, j'ai rencontré plusieurs problèmes qui ont grandement affecté mon expérience d'achat.</t>
@@ -146,7 +146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -171,185 +171,192 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.0</v>
+        <v>21.0</v>
       </c>
       <c r="B2" t="n">
         <v>15.0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="G2" t="n">
+        <v>45344.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="B3" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="G3" t="n">
+        <v>45344.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22.0</v>
+        <v>200.0</v>
       </c>
       <c r="B4" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="G4" t="n">
+        <v>45344.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>200.0</v>
+        <v>210.0</v>
       </c>
       <c r="B5" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="G5" t="n">
+        <v>45346.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>210.0</v>
+        <v>215.0</v>
       </c>
       <c r="B6" t="n">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="G6" t="n">
+        <v>45342.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>215.0</v>
+        <v>238.0</v>
       </c>
       <c r="B7" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="G7" t="n">
+        <v>45344.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>238.0</v>
+        <v>265.0</v>
       </c>
       <c r="B8" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
       </c>
+      <c r="G8" t="n">
+        <v>45346.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>265.0</v>
+        <v>273.0</v>
       </c>
       <c r="B9" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>273.0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="G9" t="n">
+        <v>45353.0</v>
       </c>
     </row>
   </sheetData>
